--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8460"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -45,58 +45,67 @@
     <t>loading</t>
   </si>
   <si>
+    <t>resourcepoolType</t>
+  </si>
+  <si>
+    <t>resourcepoolName</t>
+  </si>
+  <si>
+    <t>VC-镜像</t>
+  </si>
+  <si>
+    <t>Centos</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>root1234</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>vmware</t>
+  </si>
+  <si>
+    <t>vmware资源池16</t>
+  </si>
+  <si>
+    <t>OP-镜像</t>
+  </si>
+  <si>
+    <t>openstack</t>
+  </si>
+  <si>
+    <t>openstack资源池65</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>isPublic</t>
+  </si>
+  <si>
+    <t>测试镜像_edited</t>
+  </si>
+  <si>
+    <t>rhel6.5</t>
+  </si>
+  <si>
+    <t>Redhat</t>
+  </si>
+  <si>
+    <t>image_name</t>
+  </si>
+  <si>
     <t>relavantName</t>
   </si>
   <si>
-    <t>resourcepoolType</t>
-  </si>
-  <si>
-    <t>测试镜像</t>
-  </si>
-  <si>
-    <t>Centos6.5</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>root1234</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>template-centos-6.5-x64bit</t>
   </si>
   <si>
-    <t>vmware</t>
-  </si>
-  <si>
-    <t>deleted</t>
-  </si>
-  <si>
-    <t>isPublic</t>
-  </si>
-  <si>
-    <t>测试镜像_edited</t>
-  </si>
-  <si>
-    <t>rhel6.5</t>
-  </si>
-  <si>
-    <t>Redhat</t>
-  </si>
-  <si>
-    <t>image_name</t>
-  </si>
-  <si>
-    <t>resourcepoolName</t>
-  </si>
-  <si>
     <t>centos7.2</t>
-  </si>
-  <si>
-    <t>openstack</t>
   </si>
 </sst>
 </file>
@@ -104,12 +113,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,23 +127,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,59 +158,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,9 +180,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,46 +278,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,192 +288,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -466,16 +483,62 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,20 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,37 +588,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,157 +615,172 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1070,14 +1130,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -1085,69 +1146,100 @@
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
     <col min="8" max="8" width="26.875" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="b">
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4">
+        <v>60</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1183,21 +1275,21 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1229,12 +1321,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1273,10 +1365,10 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1293,10 +1385,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1337,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1360,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -51,6 +51,9 @@
     <t>resourcepoolName</t>
   </si>
   <si>
+    <t>template_name</t>
+  </si>
+  <si>
     <t>VC-镜像</t>
   </si>
   <si>
@@ -72,6 +75,9 @@
     <t>vmware资源池16</t>
   </si>
   <si>
+    <t>Template-CentOS7-1511-test</t>
+  </si>
+  <si>
     <t>OP-镜像</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
   </si>
   <si>
     <t>openstack资源池65</t>
+  </si>
+  <si>
+    <t>centos7test</t>
   </si>
   <si>
     <t>deleted</t>
@@ -135,15 +144,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,17 +168,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,62 +189,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +242,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -256,26 +264,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,187 +297,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,15 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,11 +534,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,21 +569,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,16 +594,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -627,34 +636,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
@@ -663,97 +672,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,10 +1139,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1148,9 +1157,10 @@
     <col min="8" max="8" width="26.875" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
     <col min="10" max="10" width="24.375" customWidth="1"/>
+    <col min="11" max="11" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,65 +1191,74 @@
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4">
         <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1275,21 +1294,21 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1321,12 +1340,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1340,15 +1359,16 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="8" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1365,7 +1385,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -1379,16 +1399,16 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1449,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1440,10 +1460,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>521424896</v>
@@ -1452,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>centos7test</t>
+  </si>
+  <si>
+    <t>OP30-镜像</t>
+  </si>
+  <si>
+    <t>openstack资源池30</t>
+  </si>
+  <si>
+    <t>centos7</t>
   </si>
   <si>
     <t>deleted</t>
@@ -122,9 +131,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -145,6 +154,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -152,8 +192,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,16 +214,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,105 +296,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -297,37 +306,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,13 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,66 +456,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -424,60 +487,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,41 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,13 +552,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,6 +571,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -608,11 +611,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -636,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -783,7 +792,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1139,13 +1148,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1154,7 +1163,7 @@
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="23.25" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
     <col min="10" max="10" width="24.375" customWidth="1"/>
     <col min="11" max="11" width="28.25" customWidth="1"/>
@@ -1259,6 +1268,39 @@
       </c>
       <c r="K3" s="7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1294,21 +1336,21 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1340,12 +1382,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1359,7 +1401,7 @@
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1427,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -1405,7 +1447,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1449,7 +1491,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1472,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="20490" windowHeight="8460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -48,7 +48,7 @@
     <t>resourcepoolType</t>
   </si>
   <si>
-    <t>resourcepoolName</t>
+    <t>resourcepool</t>
   </si>
   <si>
     <t>template_name</t>
@@ -99,28 +99,34 @@
     <t>centos7</t>
   </si>
   <si>
+    <t>init_name</t>
+  </si>
+  <si>
     <t>deleted</t>
   </si>
   <si>
     <t>isPublic</t>
   </si>
   <si>
-    <t>测试镜像_edited</t>
-  </si>
-  <si>
-    <t>rhel6.5</t>
-  </si>
-  <si>
-    <t>Redhat</t>
+    <t>VC-镜像_edited</t>
+  </si>
+  <si>
+    <t>rhel6.4</t>
+  </si>
+  <si>
+    <t>OP-镜像_edited</t>
+  </si>
+  <si>
+    <t>OP30-镜像_edited</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>image_name</t>
   </si>
   <si>
-    <t>relavantName</t>
-  </si>
-  <si>
-    <t>template-centos-6.5-x64bit</t>
+    <t>Template-redhat-6.4-x64bit-test</t>
   </si>
   <si>
     <t>centos7.2</t>
@@ -131,12 +137,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +159,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -162,7 +241,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,9 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,88 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -283,17 +303,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +542,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -552,6 +575,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -570,43 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -645,151 +657,157 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1170,37 +1188,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1209,31 +1227,31 @@
         <v>11</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1242,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1257,16 +1275,16 @@
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1275,13 +1293,13 @@
         <v>23</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1290,16 +1308,16 @@
       <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1312,50 +1330,97 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1368,29 +1433,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>28</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1399,58 +1494,98 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="8" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="10.125"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="b">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1074462720</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1462,61 +1597,96 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="10.375"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>521424896</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="D2" s="2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1529,14 +1699,47 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -117,10 +117,13 @@
     <t>image_name</t>
   </si>
   <si>
+    <t>init_name</t>
+  </si>
+  <si>
+    <t>resourcepool</t>
+  </si>
+  <si>
     <t>relavantName</t>
-  </si>
-  <si>
-    <t>template-centos-6.5-x64bit</t>
   </si>
   <si>
     <t>centos7.2</t>
@@ -131,9 +134,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -153,6 +156,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -161,139 +277,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,25 +309,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,13 +435,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,146 +493,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -506,6 +509,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -532,7 +548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +564,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,16 +626,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,36 +641,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -645,138 +661,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -794,10 +822,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1170,136 +1198,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>60</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="b">
+      <c r="H2" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="8">
         <v>60</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="8">
         <v>60</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1315,7 +1343,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1343,7 +1371,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
@@ -1399,58 +1427,72 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="8" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="32" customWidth="1"/>
+    <col min="8" max="10" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="b">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="D2" s="3">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1533,7 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
@@ -1514,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="8460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
   <si>
     <t>name</t>
   </si>
@@ -48,7 +48,7 @@
     <t>resourcepoolType</t>
   </si>
   <si>
-    <t>resourcepoolName</t>
+    <t>resourcepool</t>
   </si>
   <si>
     <t>template_name</t>
@@ -99,31 +99,34 @@
     <t>centos7</t>
   </si>
   <si>
+    <t>init_name</t>
+  </si>
+  <si>
     <t>deleted</t>
   </si>
   <si>
     <t>isPublic</t>
   </si>
   <si>
-    <t>测试镜像_edited</t>
-  </si>
-  <si>
-    <t>rhel6.5</t>
-  </si>
-  <si>
-    <t>Redhat</t>
+    <t>VC-镜像_edited</t>
+  </si>
+  <si>
+    <t>rhel6.4</t>
+  </si>
+  <si>
+    <t>OP-镜像_edited</t>
+  </si>
+  <si>
+    <t>OP30-镜像_edited</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>image_name</t>
   </si>
   <si>
-    <t>init_name</t>
-  </si>
-  <si>
-    <t>resourcepool</t>
-  </si>
-  <si>
-    <t>relavantName</t>
+    <t>Template-redhat-6.4-x64bit-test</t>
   </si>
   <si>
     <t>centos7.2</t>
@@ -139,7 +142,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,141 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -165,136 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,19 +318,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +480,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,128 +502,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -509,19 +518,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -546,9 +542,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,26 +575,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,19 +617,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -661,171 +657,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1179,7 +1169,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1198,136 +1188,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="2">
         <v>60</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="b">
+      <c r="H2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="2">
         <v>60</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="8" t="b">
+      <c r="H3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="2">
         <v>60</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="8" t="b">
+      <c r="H4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1340,50 +1330,97 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1396,29 +1433,59 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>28</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1427,71 +1494,97 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="10.125"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="10" width="24.75" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="b">
+      <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="3">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="5">
+        <v>1074462720</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1504,61 +1597,96 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="10.375"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>521424896</v>
-      </c>
-      <c r="D2" t="b">
+      <c r="D2" s="2">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1571,14 +1699,47 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8460" activeTab="5"/>
+    <workbookView windowWidth="20700" windowHeight="8325" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
     <sheet name="编辑镜像" sheetId="7" r:id="rId2"/>
     <sheet name="删除镜像" sheetId="8" r:id="rId3"/>
     <sheet name="添加资源池模板" sheetId="9" r:id="rId4"/>
-    <sheet name="编辑资源池模板" sheetId="10" r:id="rId5"/>
-    <sheet name="删除资源池模板" sheetId="11" r:id="rId6"/>
+    <sheet name="删除资源池模板" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -33,9 +32,6 @@
     <t>osType</t>
   </si>
   <si>
-    <t>osDisk</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -114,22 +110,16 @@
     <t>rhel6.4</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>image_name</t>
+  </si>
+  <si>
     <t>OP-镜像_edited</t>
   </si>
   <si>
     <t>OP30-镜像_edited</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>image_name</t>
-  </si>
-  <si>
-    <t>Template-redhat-6.4-x64bit-test</t>
-  </si>
-  <si>
-    <t>centos7.2</t>
   </si>
 </sst>
 </file>
@@ -137,12 +127,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,12 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF212121"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -174,7 +158,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,14 +173,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,6 +194,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -218,15 +217,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,14 +241,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,38 +270,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -318,187 +302,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,13 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +573,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -599,41 +611,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,10 +629,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -657,137 +641,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -803,11 +787,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1166,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1178,16 +1159,15 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="23.25" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="24.375" customWidth="1"/>
-    <col min="11" max="11" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="24.375" customWidth="1"/>
+    <col min="10" max="10" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1212,113 +1192,107 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2">
-        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="b">
+      <c r="G3" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="b">
+      <c r="G4" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1330,13 +1304,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1346,7 +1320,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1358,69 +1332,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="b">
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F2" t="b">
+      <c r="F2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
+      <c r="F3" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1436,7 +1390,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1447,10 +1401,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1462,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1470,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1478,7 +1432,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1494,31 +1448,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="10.125"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -1527,65 +1480,56 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
-        <v>16</v>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
-        <v>1074462720</v>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1597,122 +1541,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="10.375"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1724,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1732,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="8325" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -114,12 +114,6 @@
   </si>
   <si>
     <t>image_name</t>
-  </si>
-  <si>
-    <t>OP-镜像_edited</t>
-  </si>
-  <si>
-    <t>OP30-镜像_edited</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1300,8 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1389,8 +1383,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1416,7 +1410,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1424,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1432,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/镜像管理.xlsx
+++ b/test_data/镜像管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="创建镜像" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -68,52 +68,37 @@
     <t>vmware</t>
   </si>
   <si>
+    <t>vmware资源池</t>
+  </si>
+  <si>
+    <t>Template-CentOS7</t>
+  </si>
+  <si>
+    <t>init_name</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>isPublic</t>
+  </si>
+  <si>
+    <t>VC-镜像_edited</t>
+  </si>
+  <si>
+    <t>rhel6.4</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>image_name</t>
+  </si>
+  <si>
     <t>vmware资源池16</t>
   </si>
   <si>
     <t>Template-CentOS7-1511-test</t>
-  </si>
-  <si>
-    <t>OP-镜像</t>
-  </si>
-  <si>
-    <t>openstack</t>
-  </si>
-  <si>
-    <t>openstack资源池65</t>
-  </si>
-  <si>
-    <t>centos7test</t>
-  </si>
-  <si>
-    <t>OP30-镜像</t>
-  </si>
-  <si>
-    <t>openstack资源池30</t>
-  </si>
-  <si>
-    <t>centos7</t>
-  </si>
-  <si>
-    <t>init_name</t>
-  </si>
-  <si>
-    <t>deleted</t>
-  </si>
-  <si>
-    <t>isPublic</t>
-  </si>
-  <si>
-    <t>VC-镜像_edited</t>
-  </si>
-  <si>
-    <t>rhel6.4</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>image_name</t>
   </si>
 </sst>
 </file>
@@ -121,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -152,7 +137,105 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,121 +250,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,61 +281,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,30 +455,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -393,90 +462,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,30 +503,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -561,7 +522,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,6 +568,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -623,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -635,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,13 +1126,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1223,70 +1208,6 @@
       </c>
       <c r="J2" s="8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1235,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1326,10 +1247,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1337,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>12</v>
@@ -1354,13 +1275,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>12</v>
@@ -1381,13 +1302,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="3.375" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1395,10 +1316,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1411,22 +1332,6 @@
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1442,13 +1347,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -1459,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -1485,7 +1390,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="b">
         <v>0</v>
@@ -1497,33 +1402,10 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1535,20 +1417,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1561,14 +1443,6 @@
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
